--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem5/123/incorrect_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem5/123/incorrect_predictions_123.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Unlocking takeoff restrictions not recommended</t>
+          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17-21</t>
+          <t>9-20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,12 +496,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
+          <t>If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9-20</t>
+          <t>21-27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem5/123/incorrect_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem5/123/incorrect_predictions_123.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
+          <t>Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9-20</t>
+          <t>17-21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,12 +496,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>If the issue persists, contact DJI Support</t>
+          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21-27</t>
+          <t>9-20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
